--- a/vba/test_data.xlsx
+++ b/vba/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\MyGitHub\excel_relate\vba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379C5903-6D8F-4395-A98C-7D31485D559D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF143B7-3D6E-4CD8-8A3A-87778B6A0585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1530" windowWidth="25830" windowHeight="13140" xr2:uid="{0C59FB44-0A9E-4953-B60F-0B0BE57C21BC}"/>
+    <workbookView xWindow="8700" yWindow="2430" windowWidth="15435" windowHeight="13140" xr2:uid="{0C59FB44-0A9E-4953-B60F-0B0BE57C21BC}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sample2!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">サンプル1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">サンプル1!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1163,7 +1164,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BCABBE-168E-4899-A5EE-78ACF89B1449}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -1531,7 +1534,13 @@
     <mergeCell ref="H12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.39370078740157477" bottom="0.39370078740157477" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"メイリオ"&amp;28請求書&amp;R&amp;D &amp;T</oddHeader>
+    <oddFooter>&amp;C&amp;"Verdana"&amp;08Confidencial&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2358,18 +2367,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2391,14 +2400,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFC8203-2B92-46DB-8612-040E020EC401}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C4F454A-1293-4EF8-8D79-DB4B923E1708}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2412,4 +2413,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFC8203-2B92-46DB-8612-040E020EC401}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>